--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>ECs</t>
   </si>
   <si>
-    <t>Adam11</t>
-  </si>
-  <si>
-    <t>Itga4</t>
-  </si>
-  <si>
-    <t>ECs</t>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -95,6 +89,15 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
+    <t>Adam11</t>
+  </si>
+  <si>
+    <t>Itga4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.75186754781861</v>
+        <v>0.095045</v>
       </c>
       <c r="H2">
-        <v>1.75186754781861</v>
+        <v>0.19009</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03541474254866415</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0327906746074529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>0.5156666311640199</v>
+        <v>0.030154261835</v>
       </c>
       <c r="R2">
-        <v>0.5156666311640199</v>
+        <v>0.12061704734</v>
       </c>
       <c r="S2">
-        <v>0.002545680356091186</v>
+        <v>9.164418163397264E-05</v>
       </c>
       <c r="T2">
-        <v>0.002545680356091186</v>
+        <v>5.683235665366811E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.75186754781861</v>
+        <v>0.095045</v>
       </c>
       <c r="H3">
-        <v>1.75186754781861</v>
+        <v>0.19009</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03541474254866415</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0327906746074529</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>75.28833516356158</v>
+        <v>0.002701780851666666</v>
       </c>
       <c r="R3">
-        <v>75.28833516356158</v>
+        <v>0.01621068511</v>
       </c>
       <c r="S3">
-        <v>0.3716743032917443</v>
+        <v>8.211194041498222E-06</v>
       </c>
       <c r="T3">
-        <v>0.3716743032917443</v>
+        <v>7.638152799204701E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.75186754781861</v>
+        <v>0.095045</v>
       </c>
       <c r="H4">
-        <v>1.75186754781861</v>
+        <v>0.19009</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.03541474254866415</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0327906746074529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>123.3567969276324</v>
+        <v>4.694382200248333</v>
       </c>
       <c r="R4">
-        <v>123.3567969276324</v>
+        <v>28.16629320149</v>
       </c>
       <c r="S4">
-        <v>0.6089728435988707</v>
+        <v>0.01426706504615872</v>
       </c>
       <c r="T4">
-        <v>0.6089728435988707</v>
+        <v>0.01327139783422646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.75186754781861</v>
+        <v>0.095045</v>
       </c>
       <c r="H5">
-        <v>1.75186754781861</v>
+        <v>0.19009</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.03541474254866415</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.0327906746074529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>0.9996618559139326</v>
+        <v>6.735433592985001</v>
       </c>
       <c r="R5">
-        <v>0.9996618559139326</v>
+        <v>40.41260155791001</v>
       </c>
       <c r="S5">
-        <v>0.004935009162003186</v>
+        <v>0.02047018437913217</v>
       </c>
       <c r="T5">
-        <v>0.004935009162003186</v>
+        <v>0.01904161505933382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,1983 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.095045</v>
+      </c>
+      <c r="H6">
+        <v>0.19009</v>
+      </c>
+      <c r="I6">
+        <v>0.03541474254866415</v>
+      </c>
+      <c r="J6">
+        <v>0.0327906746074529</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.841336</v>
+      </c>
+      <c r="O6">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P6">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q6">
+        <v>0.05833659337333334</v>
+      </c>
+      <c r="R6">
+        <v>0.35001956024</v>
+      </c>
+      <c r="S6">
+        <v>0.0001772953152780423</v>
+      </c>
+      <c r="T6">
+        <v>0.0001649222636601788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.095045</v>
+      </c>
+      <c r="H7">
+        <v>0.19009</v>
+      </c>
+      <c r="I7">
+        <v>0.03541474254866415</v>
+      </c>
+      <c r="J7">
+        <v>0.0327906746074529</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.3859455</v>
+      </c>
+      <c r="N7">
+        <v>2.771891</v>
+      </c>
+      <c r="O7">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P7">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q7">
+        <v>0.1317271900475</v>
+      </c>
+      <c r="R7">
+        <v>0.52690876019</v>
+      </c>
+      <c r="S7">
+        <v>0.0004003424324197496</v>
+      </c>
+      <c r="T7">
+        <v>0.0002482689407795626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.16837</v>
+      </c>
+      <c r="I8">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="J8">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.317263</v>
+      </c>
+      <c r="N8">
+        <v>0.634526</v>
+      </c>
+      <c r="O8">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P8">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q8">
+        <v>0.01780585710333333</v>
+      </c>
+      <c r="R8">
+        <v>0.10683514262</v>
+      </c>
+      <c r="S8">
+        <v>5.411517653641949E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.033859692660372E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.16837</v>
+      </c>
+      <c r="I9">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="J9">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P9">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q9">
+        <v>0.001595380581111111</v>
+      </c>
+      <c r="R9">
+        <v>0.01435842523</v>
+      </c>
+      <c r="S9">
+        <v>4.848646222901627E-06</v>
+      </c>
+      <c r="T9">
+        <v>6.765404738818957E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.16837</v>
+      </c>
+      <c r="I10">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="J10">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N10">
+        <v>148.173461</v>
+      </c>
+      <c r="O10">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P10">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q10">
+        <v>2.771996180952222</v>
+      </c>
+      <c r="R10">
+        <v>24.94796562857</v>
+      </c>
+      <c r="S10">
+        <v>0.008424590954536421</v>
+      </c>
+      <c r="T10">
+        <v>0.01175498581381824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.16837</v>
+      </c>
+      <c r="I11">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="J11">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N11">
+        <v>212.597199</v>
+      </c>
+      <c r="O11">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P11">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q11">
+        <v>3.97722115507</v>
+      </c>
+      <c r="R11">
+        <v>35.79499039563</v>
+      </c>
+      <c r="S11">
+        <v>0.01208748467888713</v>
+      </c>
+      <c r="T11">
+        <v>0.01686588840833308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.16837</v>
+      </c>
+      <c r="I12">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="J12">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.841336</v>
+      </c>
+      <c r="O12">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P12">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q12">
+        <v>0.03444730470222222</v>
+      </c>
+      <c r="R12">
+        <v>0.31002574232</v>
+      </c>
+      <c r="S12">
+        <v>0.0001046915048428428</v>
+      </c>
+      <c r="T12">
+        <v>0.0001460779711319075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.16837</v>
+      </c>
+      <c r="I13">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="J13">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.3859455</v>
+      </c>
+      <c r="N13">
+        <v>2.771891</v>
+      </c>
+      <c r="O13">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P13">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q13">
+        <v>0.07778388127833333</v>
+      </c>
+      <c r="R13">
+        <v>0.46670328767</v>
+      </c>
+      <c r="S13">
+        <v>0.0002363990928735975</v>
+      </c>
+      <c r="T13">
+        <v>0.0002199013181075015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.75186754781861</v>
-      </c>
-      <c r="H6">
-        <v>1.75186754781861</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="N6">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="O6">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="P6">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="Q6">
-        <v>2.404888967737195</v>
-      </c>
-      <c r="R6">
-        <v>2.404888967737195</v>
-      </c>
-      <c r="S6">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="T6">
-        <v>0.01187216359129066</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.124867</v>
+      </c>
+      <c r="I14">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="J14">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.317263</v>
+      </c>
+      <c r="N14">
+        <v>0.634526</v>
+      </c>
+      <c r="O14">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P14">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q14">
+        <v>0.01320522634033333</v>
+      </c>
+      <c r="R14">
+        <v>0.079231358042</v>
+      </c>
+      <c r="S14">
+        <v>4.013303883454946E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.733224198155388E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.124867</v>
+      </c>
+      <c r="I15">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="J15">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P15">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q15">
+        <v>0.001183170321444445</v>
+      </c>
+      <c r="R15">
+        <v>0.010648532893</v>
+      </c>
+      <c r="S15">
+        <v>3.595865700035978E-06</v>
+      </c>
+      <c r="T15">
+        <v>5.017377166491101E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.124867</v>
+      </c>
+      <c r="I16">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="J16">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N16">
+        <v>148.173461</v>
+      </c>
+      <c r="O16">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P16">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q16">
+        <v>2.055775061631889</v>
+      </c>
+      <c r="R16">
+        <v>18.501975554687</v>
+      </c>
+      <c r="S16">
+        <v>0.006247867189642451</v>
+      </c>
+      <c r="T16">
+        <v>0.00871776334034592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.124867</v>
+      </c>
+      <c r="I17">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="J17">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N17">
+        <v>212.597199</v>
+      </c>
+      <c r="O17">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P17">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q17">
+        <v>2.949597160837</v>
+      </c>
+      <c r="R17">
+        <v>26.546374447533</v>
+      </c>
+      <c r="S17">
+        <v>0.008964352018759874</v>
+      </c>
+      <c r="T17">
+        <v>0.01250812429698478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.124867</v>
+      </c>
+      <c r="I18">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="J18">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.841336</v>
+      </c>
+      <c r="O18">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P18">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q18">
+        <v>0.02554690025688889</v>
+      </c>
+      <c r="R18">
+        <v>0.229922102312</v>
+      </c>
+      <c r="S18">
+        <v>7.764158778411389E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001083347272158217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.124867</v>
+      </c>
+      <c r="I19">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="J19">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.3859455</v>
+      </c>
+      <c r="N19">
+        <v>2.771891</v>
+      </c>
+      <c r="O19">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P19">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q19">
+        <v>0.05768628558283334</v>
+      </c>
+      <c r="R19">
+        <v>0.346117713497</v>
+      </c>
+      <c r="S19">
+        <v>0.0001753189138792392</v>
+      </c>
+      <c r="T19">
+        <v>0.0001630837909849106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.654899</v>
+      </c>
+      <c r="I20">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="J20">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.317263</v>
+      </c>
+      <c r="N20">
+        <v>0.634526</v>
+      </c>
+      <c r="O20">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P20">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q20">
+        <v>0.06925840714566667</v>
+      </c>
+      <c r="R20">
+        <v>0.415550442874</v>
+      </c>
+      <c r="S20">
+        <v>0.0002104886559275678</v>
+      </c>
+      <c r="T20">
+        <v>0.0001957991137888926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.654899</v>
+      </c>
+      <c r="I21">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="J21">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P21">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q21">
+        <v>0.006205459091222222</v>
+      </c>
+      <c r="R21">
+        <v>0.05584913182099999</v>
+      </c>
+      <c r="S21">
+        <v>1.885949731384482E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.631500147323036E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.654899</v>
+      </c>
+      <c r="I22">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="J22">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N22">
+        <v>148.173461</v>
+      </c>
+      <c r="O22">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P22">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q22">
+        <v>10.78207238171544</v>
+      </c>
+      <c r="R22">
+        <v>97.03865143543898</v>
+      </c>
+      <c r="S22">
+        <v>0.03276864163173338</v>
+      </c>
+      <c r="T22">
+        <v>0.04572268488735376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.654899</v>
+      </c>
+      <c r="I23">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="J23">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N23">
+        <v>212.597199</v>
+      </c>
+      <c r="O23">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P23">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q23">
+        <v>15.469965891989</v>
+      </c>
+      <c r="R23">
+        <v>139.229693027901</v>
+      </c>
+      <c r="S23">
+        <v>0.04701598639139101</v>
+      </c>
+      <c r="T23">
+        <v>0.06560226556232658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.654899</v>
+      </c>
+      <c r="I24">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="J24">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.841336</v>
+      </c>
+      <c r="O24">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P24">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q24">
+        <v>0.1339876783404444</v>
+      </c>
+      <c r="R24">
+        <v>1.205889105064</v>
+      </c>
+      <c r="S24">
+        <v>0.0004072124596428872</v>
+      </c>
+      <c r="T24">
+        <v>0.0005681909913661289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.654899</v>
+      </c>
+      <c r="I25">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="J25">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.3859455</v>
+      </c>
+      <c r="N25">
+        <v>2.771891</v>
+      </c>
+      <c r="O25">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P25">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q25">
+        <v>0.3025514406681667</v>
+      </c>
+      <c r="R25">
+        <v>1.815308644009</v>
+      </c>
+      <c r="S25">
+        <v>0.0009195078073518213</v>
+      </c>
+      <c r="T25">
+        <v>0.0008553373720216464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.113491</v>
+      </c>
+      <c r="H26">
+        <v>0.340473</v>
+      </c>
+      <c r="I26">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="J26">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.317263</v>
+      </c>
+      <c r="N26">
+        <v>0.634526</v>
+      </c>
+      <c r="O26">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P26">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q26">
+        <v>0.03600649513300001</v>
+      </c>
+      <c r="R26">
+        <v>0.216038970798</v>
+      </c>
+      <c r="S26">
+        <v>0.0001094301627420821</v>
+      </c>
+      <c r="T26">
+        <v>0.0001017932714342908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.113491</v>
+      </c>
+      <c r="H27">
+        <v>0.340473</v>
+      </c>
+      <c r="I27">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="J27">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P27">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q27">
+        <v>0.003226132996333333</v>
+      </c>
+      <c r="R27">
+        <v>0.029035196967</v>
+      </c>
+      <c r="S27">
+        <v>9.804793760467934E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.368080802779537E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.113491</v>
+      </c>
+      <c r="H28">
+        <v>0.340473</v>
+      </c>
+      <c r="I28">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="J28">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N28">
+        <v>148.173461</v>
+      </c>
+      <c r="O28">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P28">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q28">
+        <v>5.605451420783666</v>
+      </c>
+      <c r="R28">
+        <v>50.44906278705299</v>
+      </c>
+      <c r="S28">
+        <v>0.01703596695411225</v>
+      </c>
+      <c r="T28">
+        <v>0.02377059621659523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.113491</v>
+      </c>
+      <c r="H29">
+        <v>0.340473</v>
+      </c>
+      <c r="I29">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="J29">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N29">
+        <v>212.597199</v>
+      </c>
+      <c r="O29">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P29">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q29">
+        <v>8.042622903903002</v>
+      </c>
+      <c r="R29">
+        <v>72.38360613512701</v>
+      </c>
+      <c r="S29">
+        <v>0.02444296591479919</v>
+      </c>
+      <c r="T29">
+        <v>0.0341057173133598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.113491</v>
+      </c>
+      <c r="H30">
+        <v>0.340473</v>
+      </c>
+      <c r="I30">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="J30">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.841336</v>
+      </c>
+      <c r="O30">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P30">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q30">
+        <v>0.06965835465866667</v>
+      </c>
+      <c r="R30">
+        <v>0.6269251919280001</v>
+      </c>
+      <c r="S30">
+        <v>0.000211704167775478</v>
+      </c>
+      <c r="T30">
+        <v>0.0002953946965919936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.113491</v>
+      </c>
+      <c r="H31">
+        <v>0.340473</v>
+      </c>
+      <c r="I31">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="J31">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.3859455</v>
+      </c>
+      <c r="N31">
+        <v>2.771891</v>
+      </c>
+      <c r="O31">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P31">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q31">
+        <v>0.1572923407405</v>
+      </c>
+      <c r="R31">
+        <v>0.9437540444430002</v>
+      </c>
+      <c r="S31">
+        <v>0.0004780394865353233</v>
+      </c>
+      <c r="T31">
+        <v>0.0004446781581042665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.159188</v>
+      </c>
+      <c r="H32">
+        <v>4.318376</v>
+      </c>
+      <c r="I32">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="J32">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>0.685030462444</v>
+      </c>
+      <c r="R32">
+        <v>2.740121849776</v>
+      </c>
+      <c r="S32">
+        <v>0.002081929793822864</v>
+      </c>
+      <c r="T32">
+        <v>0.001291090983200803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.159188</v>
+      </c>
+      <c r="H33">
+        <v>4.318376</v>
+      </c>
+      <c r="I33">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="J33">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>0.06137779781733332</v>
+      </c>
+      <c r="R33">
+        <v>0.3682667869039999</v>
+      </c>
+      <c r="S33">
+        <v>0.0001865380781742802</v>
+      </c>
+      <c r="T33">
+        <v>0.0001735199943838098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.159188</v>
+      </c>
+      <c r="H34">
+        <v>4.318376</v>
+      </c>
+      <c r="I34">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="J34">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>106.6447863032226</v>
+      </c>
+      <c r="R34">
+        <v>639.8687178193359</v>
+      </c>
+      <c r="S34">
+        <v>0.3241125324097568</v>
+      </c>
+      <c r="T34">
+        <v>0.3014934288693542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.159188</v>
+      </c>
+      <c r="H35">
+        <v>4.318376</v>
+      </c>
+      <c r="I35">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="J35">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>153.012440304804</v>
+      </c>
+      <c r="R35">
+        <v>918.074641828824</v>
+      </c>
+      <c r="S35">
+        <v>0.4650321055206442</v>
+      </c>
+      <c r="T35">
+        <v>0.4325785337127979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.159188</v>
+      </c>
+      <c r="H36">
+        <v>4.318376</v>
+      </c>
+      <c r="I36">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="J36">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>1.325263531722667</v>
+      </c>
+      <c r="R36">
+        <v>7.951581190336</v>
+      </c>
+      <c r="S36">
+        <v>0.00402771231737141</v>
+      </c>
+      <c r="T36">
+        <v>0.003746627099036184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.159188</v>
+      </c>
+      <c r="H37">
+        <v>4.318376</v>
+      </c>
+      <c r="I37">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="J37">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>2.992516892254</v>
+      </c>
+      <c r="R37">
+        <v>11.970067569016</v>
+      </c>
+      <c r="S37">
+        <v>0.009094792739981422</v>
+      </c>
+      <c r="T37">
+        <v>0.005640058053595057</v>
       </c>
     </row>
   </sheetData>
